--- a/Energy Consumption32.xlsx
+++ b/Energy Consumption32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.688159886547004</v>
+        <v>1.715814800564672</v>
       </c>
       <c r="C2" t="n">
-        <v>1.179438564688883</v>
+        <v>1.344746052185347</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.290564548697427</v>
+        <v>2.348625306607237</v>
       </c>
       <c r="C3" t="n">
-        <v>2.218665364772435</v>
+        <v>2.957568175799895</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.06686766613349</v>
+        <v>3.900720482668748</v>
       </c>
       <c r="C4" t="n">
-        <v>3.261309573728101</v>
+        <v>4.903814833695736</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.58935058465745</v>
+        <v>6.876269181562505</v>
       </c>
       <c r="C5" t="n">
-        <v>4.362255382758908</v>
+        <v>6.430576443856835</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.45021394650432</v>
+        <v>8.679111821355521</v>
       </c>
       <c r="C6" t="n">
-        <v>5.302071781719384</v>
+        <v>8.193382547301033</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.00426013437923</v>
+        <v>11.38862186017541</v>
       </c>
       <c r="C7" t="n">
-        <v>6.509421939419594</v>
+        <v>9.878994975895676</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.07145275782024</v>
+        <v>17.11492813834795</v>
       </c>
       <c r="C8" t="n">
-        <v>7.576002707852131</v>
+        <v>11.3029545471748</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.52321206473623</v>
+        <v>17.60215455405842</v>
       </c>
       <c r="C9" t="n">
-        <v>8.577361660711336</v>
+        <v>12.89659979221964</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.96164482307407</v>
+        <v>20.35772177204023</v>
       </c>
       <c r="C10" t="n">
-        <v>9.754548668940609</v>
+        <v>15.14436874890551</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.85673190777072</v>
+        <v>27.82553538946745</v>
       </c>
       <c r="C11" t="n">
-        <v>10.75840355373125</v>
+        <v>16.64302004324341</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.07848212564976</v>
+        <v>28.88347960086568</v>
       </c>
       <c r="C12" t="n">
-        <v>11.72246137529977</v>
+        <v>18.17728281028199</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.2792398920076</v>
+        <v>30.73451516852044</v>
       </c>
       <c r="C13" t="n">
-        <v>12.80258691445136</v>
+        <v>19.90718888988197</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.33651851963288</v>
+        <v>31.28118357714895</v>
       </c>
       <c r="C14" t="n">
-        <v>13.86166433334827</v>
+        <v>21.439949574152</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.43689704340507</v>
+        <v>31.36198500109434</v>
       </c>
       <c r="C15" t="n">
-        <v>14.93273368129357</v>
+        <v>23.09352825195852</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.004064686592</v>
+        <v>36.65831906459047</v>
       </c>
       <c r="C16" t="n">
-        <v>16.05714130450356</v>
+        <v>25.40495230224061</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.10357360529537</v>
+        <v>37.95066378312121</v>
       </c>
       <c r="C17" t="n">
-        <v>17.11067612830789</v>
+        <v>27.15236601258598</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.15606940438115</v>
+        <v>39.08323825426832</v>
       </c>
       <c r="C18" t="n">
-        <v>18.51114312106025</v>
+        <v>28.7636967967861</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.53186477646319</v>
+        <v>40.92453473996203</v>
       </c>
       <c r="C19" t="n">
-        <v>19.71543008346947</v>
+        <v>30.36552564686376</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38.38317550785801</v>
+        <v>43.15059896334142</v>
       </c>
       <c r="C20" t="n">
-        <v>20.79137557049575</v>
+        <v>31.91913770790202</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.47631584862759</v>
+        <v>44.87127672440943</v>
       </c>
       <c r="C21" t="n">
-        <v>21.91488460990193</v>
+        <v>33.35843983452933</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.66838761138273</v>
+        <v>46.12928144144466</v>
       </c>
       <c r="C22" t="n">
-        <v>23.58014014025915</v>
+        <v>35.29260128478949</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.02497413958196</v>
+        <v>48.77405787826156</v>
       </c>
       <c r="C23" t="n">
-        <v>24.58734334303947</v>
+        <v>36.96373117019682</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.25977924422725</v>
+        <v>49.44412179495459</v>
       </c>
       <c r="C24" t="n">
-        <v>25.92423487135785</v>
+        <v>38.63028883413666</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46.38362358031272</v>
+        <v>54.7499548033142</v>
       </c>
       <c r="C25" t="n">
-        <v>27.00827557828759</v>
+        <v>40.31137261639108</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.61768901548151</v>
+        <v>56.58289843137347</v>
       </c>
       <c r="C26" t="n">
-        <v>28.27910660217786</v>
+        <v>42.28200621570694</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.58674811215295</v>
+        <v>56.70046874643289</v>
       </c>
       <c r="C27" t="n">
-        <v>29.35549355588691</v>
+        <v>43.99740959188668</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.65900171459788</v>
+        <v>57.92339714827015</v>
       </c>
       <c r="C28" t="n">
-        <v>30.40729069888028</v>
+        <v>45.9982537924812</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57.41261879811251</v>
+        <v>59.1344199520008</v>
       </c>
       <c r="C29" t="n">
-        <v>31.54918085288281</v>
+        <v>47.72587741265257</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58.83633835689503</v>
+        <v>60.57874790843048</v>
       </c>
       <c r="C30" t="n">
-        <v>32.69919943147139</v>
+        <v>49.38083464405246</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.75800609583823</v>
+        <v>60.98993644378054</v>
       </c>
       <c r="C31" t="n">
-        <v>33.68372097958279</v>
+        <v>51.19487047895331</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.87419802932994</v>
+        <v>62.14520327656972</v>
       </c>
       <c r="C32" t="n">
-        <v>34.77800082724252</v>
+        <v>52.76884739034142</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>64.08984135291614</v>
+        <v>65.70834550730596</v>
       </c>
       <c r="C33" t="n">
-        <v>36.19466713434993</v>
+        <v>55.11619135452127</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.75694533587983</v>
+        <v>67.51715856318704</v>
       </c>
       <c r="C34" t="n">
-        <v>37.13827758920203</v>
+        <v>56.62410931795554</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.65450900241005</v>
+        <v>68.36424839323614</v>
       </c>
       <c r="C35" t="n">
-        <v>38.40724736316842</v>
+        <v>58.3049221637911</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.49662205811475</v>
+        <v>68.76408560363951</v>
       </c>
       <c r="C36" t="n">
-        <v>39.50470520220392</v>
+        <v>60.00101188087859</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.82183468495404</v>
+        <v>69.13721798994746</v>
       </c>
       <c r="C37" t="n">
-        <v>40.62553216053308</v>
+        <v>62.17970510654212</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.65672918307365</v>
+        <v>71.25234677775015</v>
       </c>
       <c r="C38" t="n">
-        <v>41.68688160174708</v>
+        <v>63.66823857229213</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70.84045744392019</v>
+        <v>73.95083593567465</v>
       </c>
       <c r="C39" t="n">
-        <v>42.67264319483689</v>
+        <v>65.31622451808654</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70.91652185949415</v>
+        <v>76.51289869114296</v>
       </c>
       <c r="C40" t="n">
-        <v>43.83634185205338</v>
+        <v>67.20564685695702</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>71.00277620183566</v>
+        <v>79.93238609289114</v>
       </c>
       <c r="C41" t="n">
-        <v>44.89507142159577</v>
+        <v>68.79380686321028</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.81386406162171</v>
+        <v>84.61080966123978</v>
       </c>
       <c r="C42" t="n">
-        <v>45.88786797237521</v>
+        <v>70.34840349370718</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.38218726261005</v>
+        <v>85.84842133737801</v>
       </c>
       <c r="C43" t="n">
-        <v>46.91894414966973</v>
+        <v>72.1668042106307</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84.54455730549675</v>
+        <v>89.60102330869509</v>
       </c>
       <c r="C44" t="n">
-        <v>48.04324333790398</v>
+        <v>73.80137616069696</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.4066923391848</v>
+        <v>91.34547341033442</v>
       </c>
       <c r="C45" t="n">
-        <v>48.96705663906008</v>
+        <v>75.27635653945124</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.49683921316037</v>
+        <v>92.84386155406624</v>
       </c>
       <c r="C46" t="n">
-        <v>49.93051411394405</v>
+        <v>76.993164950554</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.55195646999532</v>
+        <v>95.001387702025</v>
       </c>
       <c r="C47" t="n">
-        <v>51.03736931534757</v>
+        <v>78.56390605773701</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>92.12691429581913</v>
+        <v>96.74261100267847</v>
       </c>
       <c r="C48" t="n">
-        <v>52.18127165591596</v>
+        <v>80.16484628739801</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>97.44128653644138</v>
+      </c>
+      <c r="C49" t="n">
+        <v>81.78246165899301</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>99.31737681177573</v>
+      </c>
+      <c r="C50" t="n">
+        <v>83.40862805890031</v>
       </c>
     </row>
   </sheetData>
